--- a/tablas 3.0/_DER_.xlsx
+++ b/tablas 3.0/_DER_.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8070" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8070" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="der-usr" sheetId="2" r:id="rId1"/>
     <sheet name="der-web" sheetId="5" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
+    <sheet name="der-pedidos" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
   <si>
     <t>motores</t>
   </si>
@@ -312,6 +313,27 @@
   </si>
   <si>
     <t>lineas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>cliente_sucursal</t>
+  </si>
+  <si>
+    <t>provincia</t>
+  </si>
+  <si>
+    <t>id_sucursal</t>
+  </si>
+  <si>
+    <t>nombre_sucursal</t>
+  </si>
+  <si>
+    <t>calle</t>
+  </si>
+  <si>
+    <t>numero</t>
   </si>
 </sst>
 </file>
@@ -2611,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2992,7 +3014,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,4 +3055,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>